--- a/Civilworks cost/Work Schedule/Backup.xlsx
+++ b/Civilworks cost/Work Schedule/Backup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -132,12 +132,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -167,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,16 +182,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -193,6 +193,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,19 +488,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,204 +517,204 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>87</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>87</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>87</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>87</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>87</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>87</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>87</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>87</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>87</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>87</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>87</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>87</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>87</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>87</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>87</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>87</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>87</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>87</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>87</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>87</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="E14" s="9"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -716,7 +728,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Civilworks cost/Work Schedule/Backup.xlsx
+++ b/Civilworks cost/Work Schedule/Backup.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
